--- a/tut06/output/2001EE74.xlsx
+++ b/tut06/output/2001EE74.xlsx
@@ -515,7 +515,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -669,16 +669,16 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -691,16 +691,16 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
